--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705953.9380358363</v>
+        <v>706738.083973865</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -978,25 +980,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40.25978647510144</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>81.13095251577731</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1214,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>95.16904316421414</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>43.53759146957687</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.13778888819967</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>47.29627918133471</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1658,13 +1660,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>80.11569190233639</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.5178444382804</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>21.18375537072436</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>54.52040018682063</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>43.34711265671772</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.28530073128384</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.800737056637706</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>169.9804588624395</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>114.9581870864144</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2950,70 +2952,70 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>107.8030269818536</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>90.50278177497624</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3284,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>58.39471844666272</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>38.2120941396708</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>61.5458531604433</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,61 +3505,61 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D38" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>133.0074762720498</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>122.5377819982128</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.414352191821494</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,20 +3979,20 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>19.20171008547518</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>80.86228322859426</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4331,13 +4333,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4358,22 +4360,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>774.2973583780361</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>774.2973583780361</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="C6" t="n">
-        <v>479.4030114519265</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="D6" t="n">
-        <v>330.4686017906753</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="E6" t="n">
-        <v>171.2311467852198</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="F6" t="n">
-        <v>171.2311467852198</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4744,31 +4746,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C8" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y8" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="X8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.2622584721643</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="C9" t="n">
-        <v>271.8092291910373</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4887,13 +4889,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4920,13 +4922,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>778.0940126323369</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>204.697218590109</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>91.32808299768836</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5121,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>204.697218590109</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.697218590109</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5367,10 +5369,10 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>639.976906990516</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>639.976906990516</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>432.3831247296267</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>432.3831247296267</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>432.3831247296267</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>224.7893424687375</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5710,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C20" t="n">
         <v>40.6788758079141</v>
@@ -5735,16 +5737,16 @@
         <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
+        <v>527.5764290961142</v>
+      </c>
+      <c r="V20" t="n">
+        <v>527.5764290961142</v>
+      </c>
+      <c r="W20" t="n">
         <v>284.1276524520142</v>
       </c>
-      <c r="V20" t="n">
-        <v>40.6788758079141</v>
-      </c>
-      <c r="W20" t="n">
-        <v>40.6788758079141</v>
-      </c>
       <c r="X20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.2549444941228</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C21" t="n">
-        <v>466.183833194304</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="22">
@@ -5926,16 +5928,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>159.8308948474333</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="25">
@@ -6166,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>118.5018269537981</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6315,7 +6317,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>792.3597223162528</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>590.1731276750188</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X32" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
         <v>165.8157010833278</v>
@@ -6789,13 +6791,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6874,34 +6876,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>655.1273272985679</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="C36" t="n">
-        <v>480.6742980174409</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="D36" t="n">
-        <v>331.7398883561897</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="E36" t="n">
-        <v>172.5024333507342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>172.5024333507342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>172.5024333507342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.1273272985679</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="37">
@@ -7123,19 +7125,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C39" t="n">
-        <v>485.4562706347935</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D39" t="n">
-        <v>485.4562706347935</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E39" t="n">
-        <v>485.4562706347935</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
         <v>109.5807722530562</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.51141680214578</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C41" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D41" t="n">
-        <v>28.51141680214578</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7421,10 +7423,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7441,22 @@
         <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>453.0030327087026</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U41" t="n">
-        <v>453.0030327087026</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V41" t="n">
-        <v>245.4092504478133</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W41" t="n">
-        <v>37.81546818692397</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X41" t="n">
-        <v>37.81546818692397</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.51141680214578</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>170.8448798343152</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>21.91047017306394</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>21.91047017306394</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>21.91047017306394</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>21.91047017306394</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>345.2979091154422</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W42" t="n">
-        <v>345.2979091154422</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X42" t="n">
-        <v>345.2979091154422</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y42" t="n">
-        <v>345.2979091154422</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7673,25 +7675,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V44" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W44" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X44" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>305.7142837842288</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>98.12050152333947</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,7 +7990,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>414.5003637832617</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>164.1205091169155</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8231,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>258.4602915813506</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9015,13 +9017,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O15" t="n">
-        <v>269.7148239424616</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9963,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,7 +11308,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22598,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>185.5043079680906</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22866,25 +22868,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.0837306881092</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>31.10449172071915</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,13 +22913,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="9">
@@ -23100,19 +23102,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>52.27602240042461</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>162.1451043077275</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23306,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,10 +23354,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>15.25884396321541</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23388,7 +23390,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>158.4767060221428</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>191.2741794849307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>91.56747920150143</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>0.2551407651970692</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23789,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>360.7466147015374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24023,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>118.1880988014951</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>93.99640450649292</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24175,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84.2478829185835</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2684753367462</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>185.901842367224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>14.00696723134699</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,19 +24572,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>1.702712241398274</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>234.2827816309986</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,10 +24919,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>64.90547200646216</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>67.1422986804247</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25172,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>152.0811711237432</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.4329863157301</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>50.68959107605316</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D38" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>14.43758929258891</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>22.5314303951711</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.0269277851232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>106.821092044675</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>396.1010274296599</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>338.5801012383814</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>129.0318987702889</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>124.8204125487101</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>434037.5717142471</v>
+        <v>434037.571714247</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434037.5717142472</v>
+        <v>434037.5717142471</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434037.5717142472</v>
+        <v>434037.5717142471</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457180.0292414518</v>
+        <v>457180.0292414516</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414515</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414518</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457180.0292414518</v>
+        <v>457180.0292414516</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434037.571714247</v>
+        <v>434037.5717142471</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434037.571714247</v>
+        <v>434037.5717142471</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26328,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
         <v>157852.6389047657</v>
@@ -26335,16 +26337,16 @@
         <v>157852.6389047657</v>
       </c>
       <c r="J2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="L2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="M2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="M2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="N2" t="n">
         <v>157852.6389047658</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="C4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="D4" t="n">
         <v>31909.3965941043</v>
@@ -26430,7 +26432,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26439,13 +26441,13 @@
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
         <v>33649.84678425771</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963.521625543435</v>
+        <v>2963.521625543399</v>
       </c>
       <c r="C6" t="n">
-        <v>71837.27820723328</v>
+        <v>71837.27820723326</v>
       </c>
       <c r="D6" t="n">
-        <v>71837.27820723328</v>
+        <v>71837.27820723329</v>
       </c>
       <c r="E6" t="n">
-        <v>105464.8782072332</v>
+        <v>105464.8782072333</v>
       </c>
       <c r="F6" t="n">
         <v>105464.8782072332</v>
       </c>
       <c r="G6" t="n">
-        <v>99820.08038257933</v>
+        <v>99820.08038257927</v>
       </c>
       <c r="H6" t="n">
         <v>109549.1233567464</v>
@@ -26543,7 +26545,7 @@
         <v>109549.1233567464</v>
       </c>
       <c r="J6" t="n">
-        <v>55776.61246653697</v>
+        <v>55776.6124665369</v>
       </c>
       <c r="K6" t="n">
         <v>109549.1233567464</v>
@@ -26552,7 +26554,7 @@
         <v>109549.1233567464</v>
       </c>
       <c r="M6" t="n">
-        <v>109549.1233567463</v>
+        <v>109549.1233567464</v>
       </c>
       <c r="N6" t="n">
         <v>109549.1233567464</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34708,7 +34710,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>21.52426467247106</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>127.1185794980173</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O9" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="O9" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O15" t="n">
-        <v>127.1185794980172</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36683,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>169.9067907798016</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,7 +38028,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706738.083973865</v>
+        <v>602505.5857104216</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>81.13095251577731</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,73 +1135,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.53759146957687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1390,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="T11" t="n">
         <v>205.5178444382804</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="13">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>202.2946864288972</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>62.52515684565935</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,11 +2083,11 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.34711265671772</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,67 +2317,67 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.800737056637706</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>106.7776990973757</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>169.9804588624395</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,67 +2715,67 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>115.6677505121452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.73723617201896</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>107.8030269818536</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>17.71909330984131</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3268,20 +3268,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>38.2120941396708</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>20.75315057824755</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>133.0074762720498</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>70.64856914772007</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3675,52 +3675,52 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21.16030022554292</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.66473413638044</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>14.48693373137006</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>44.46197307780719</v>
       </c>
       <c r="G45" t="n">
-        <v>8.311618392921693</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4439,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>639.976906990516</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W3" t="n">
-        <v>431.628992076841</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4588,22 +4588,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
         <v>639.2227743377304</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.8449139228332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4649,19 +4649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X6" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4813,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>609.8786756122688</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C9" t="n">
-        <v>609.8786756122688</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D9" t="n">
-        <v>460.9442659510175</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E9" t="n">
-        <v>301.706810945562</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4889,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y9" t="n">
-        <v>778.0940126323369</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5050,43 +5050,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>566.7035761171468</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
         <v>16.44142755506243</v>
@@ -5238,13 +5238,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
         <v>16.44142755506243</v>
@@ -5360,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y17" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5606,13 +5606,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5709,13 +5709,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.4352409821462</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="C21" t="n">
-        <v>176.4352409821462</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D21" t="n">
-        <v>176.4352409821462</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E21" t="n">
-        <v>176.4352409821462</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>176.4352409821462</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5843,40 +5843,40 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>176.4352409821462</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.4352409821462</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5968,16 +5968,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>159.8308948474333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>792.3597223162528</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>590.1731276750188</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>847.2210438822067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>645.0344492409727</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>645.0344492409727</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>645.0344492409727</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>401.5856725968725</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,19 +6648,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.5536560184564</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X32" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y32" t="n">
-        <v>348.0024326625565</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>582.8795121963512</v>
+        <v>212.3863790944702</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>37.9333498133432</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>37.9333498133432</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y33" t="n">
-        <v>582.8795121963512</v>
+        <v>380.6017161145382</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.87921799876909</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C36" t="n">
-        <v>57.87921799876909</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D36" t="n">
-        <v>57.87921799876909</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>226.0945550188371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>226.0945550188371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>226.0945550188371</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>226.0945550188371</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>688.4345967823949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>554.0836106490112</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>394.8461556435558</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C41" t="n">
-        <v>453.0030327087026</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7496,10 +7496,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7514,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>808.268615999202</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>808.268615999202</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="V42" t="n">
-        <v>807.4381113577983</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="W42" t="n">
-        <v>599.8443290969091</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="X42" t="n">
-        <v>392.2505468360198</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J43" t="n">
         <v>16.44142755506243</v>
@@ -7590,31 +7590,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,43 +7651,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
         <v>639.2227743377304</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C45" t="n">
-        <v>24.83700168932677</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="D45" t="n">
-        <v>24.83700168932677</v>
+        <v>403.7521016246881</v>
       </c>
       <c r="E45" t="n">
-        <v>24.83700168932677</v>
+        <v>403.7521016246881</v>
       </c>
       <c r="F45" t="n">
-        <v>24.83700168932677</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7733,13 +7733,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="46">
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8546,10 +8546,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8780,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10439,7 +10439,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11390,7 +11390,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>19.89120263984205</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>328.0806684918701</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>31.10449172071915</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23023,10 +23023,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23068,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677488</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>31.3731610079022</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>162.1451043077275</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>17.57800512585095</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>158.4767060221428</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>19.30946265260823</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>320.273092030292</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>8.181203141508689</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23794,7 +23794,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>45.60331746167078</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>93.99640450649292</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24107,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>143.2684753367462</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,16 +24490,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>59.75548455249167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24572,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>1.702712241398274</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>292.3449039254042</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24809,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>56.01542059169259</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>280.8531039918463</v>
+        <v>355.5356555989886</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>64.90547200646216</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>139.9259871455596</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25061,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>119.4329863157301</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25250,10 +25250,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>91.48229365824892</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>14.43758929258891</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.50926500492307</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>385.7157455161685</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>179.3248901303182</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>86.49310001626269</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>218.3136534180552</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25809,7 +25809,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25830,10 +25830,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>137.4656039084743</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,7 +25879,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25924,13 +25924,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034424</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>338.5801012383814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>100.6072393155767</v>
       </c>
       <c r="G45" t="n">
-        <v>129.0318987702889</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>434037.571714247</v>
+        <v>434037.5717142471</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434037.5717142471</v>
+        <v>434037.5717142472</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434037.5717142471</v>
+        <v>434037.571714247</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434037.5717142471</v>
+        <v>434037.5717142472</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457180.0292414515</v>
+        <v>457180.0292414516</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414515</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414518</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414515</v>
       </c>
     </row>
     <row r="15">
@@ -26334,7 +26334,7 @@
         <v>157852.6389047657</v>
       </c>
       <c r="I2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="J2" t="n">
         <v>157852.6389047657</v>
@@ -26346,10 +26346,10 @@
         <v>157852.6389047657</v>
       </c>
       <c r="M2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="N2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26423,7 +26423,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="D4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
@@ -26456,7 +26456,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="P4" t="n">
         <v>31909.3965941043</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963.521625543399</v>
+        <v>-9674.640529317105</v>
       </c>
       <c r="C6" t="n">
-        <v>71837.27820723326</v>
+        <v>59199.1160523727</v>
       </c>
       <c r="D6" t="n">
-        <v>71837.27820723329</v>
+        <v>59199.11605237273</v>
       </c>
       <c r="E6" t="n">
-        <v>105464.8782072333</v>
+        <v>92826.71605237277</v>
       </c>
       <c r="F6" t="n">
-        <v>105464.8782072332</v>
+        <v>92826.71605237274</v>
       </c>
       <c r="G6" t="n">
-        <v>99820.08038257927</v>
+        <v>87602.0697625388</v>
       </c>
       <c r="H6" t="n">
-        <v>109549.1233567464</v>
+        <v>97331.11273670589</v>
       </c>
       <c r="I6" t="n">
-        <v>109549.1233567464</v>
+        <v>97331.11273670592</v>
       </c>
       <c r="J6" t="n">
-        <v>55776.6124665369</v>
+        <v>43558.60184649644</v>
       </c>
       <c r="K6" t="n">
-        <v>109549.1233567464</v>
+        <v>97331.11273670587</v>
       </c>
       <c r="L6" t="n">
-        <v>109549.1233567464</v>
+        <v>97331.11273670581</v>
       </c>
       <c r="M6" t="n">
-        <v>109549.1233567464</v>
+        <v>97331.11273670589</v>
       </c>
       <c r="N6" t="n">
-        <v>109549.1233567464</v>
+        <v>97331.11273670589</v>
       </c>
       <c r="O6" t="n">
-        <v>105464.8782072332</v>
+        <v>92826.71605237277</v>
       </c>
       <c r="P6" t="n">
-        <v>105464.8782072332</v>
+        <v>92826.71605237277</v>
       </c>
     </row>
   </sheetData>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35266,10 +35266,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35500,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37159,7 +37159,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38110,7 +38110,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
